--- a/issues+history/梯度下降法.xlsx
+++ b/issues+history/梯度下降法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxia/Nutstore Files/我的坚果云/1.GITHUB/Learn-Mathematics-The-Physical-Experimental-Way/issues+history/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的坚果云\1.GITHUB\Learn-Mathematics-The-Physical-Experimental-Way\issues+history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC43BE-820C-7E42-B6C0-AB98399A85DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53CE5E3-4EB6-42A3-A0EF-9BA5A57A0637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二维梯度下降法" sheetId="4" r:id="rId1"/>
@@ -18,11 +18,21 @@
     <sheet name="四维梯度下降法" sheetId="2" r:id="rId3"/>
     <sheet name="五维梯度下降法" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -540,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,9 +558,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -571,9 +578,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,22 +596,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,6 +613,15 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,15 +905,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9647419-2F9A-6D48-9752-2216DD56F4DA}">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="6" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.6328125" customWidth="1"/>
+    <col min="3" max="6" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" customHeight="1">
@@ -934,683 +935,683 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16">
+    <row r="6" spans="2:6" ht="17">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="24">
-        <f>2*C7</f>
+      <c r="D7" s="18">
+        <f t="shared" ref="D7:D37" si="0">2*C7</f>
         <v>6</v>
       </c>
-      <c r="E7" s="24">
-        <f>-$C$3*D7</f>
+      <c r="E7" s="18">
+        <f t="shared" ref="E7:E37" si="1">-$C$3*D7</f>
         <v>-3.5999999999999996</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="18">
         <f>C7^2</f>
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="25">
-        <f>C7+E7</f>
+      <c r="C8" s="19">
+        <f t="shared" ref="C8:C37" si="2">C7+E7</f>
         <v>-0.59999999999999964</v>
       </c>
-      <c r="D8" s="25">
-        <f>2*C8</f>
+      <c r="D8" s="19">
+        <f t="shared" si="0"/>
         <v>-1.1999999999999993</v>
       </c>
-      <c r="E8" s="25">
-        <f>-$C$3*D8</f>
+      <c r="E8" s="19">
+        <f t="shared" si="1"/>
         <v>0.71999999999999953</v>
       </c>
-      <c r="F8" s="24">
-        <f t="shared" ref="F8:F37" si="0">C8^2</f>
+      <c r="F8" s="18">
+        <f t="shared" ref="F8:F37" si="3">C8^2</f>
         <v>0.3599999999999996</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
-        <f>C8+E8</f>
+      <c r="C9" s="19">
+        <f t="shared" si="2"/>
         <v>0.11999999999999988</v>
       </c>
-      <c r="D9" s="25">
-        <f>2*C9</f>
+      <c r="D9" s="19">
+        <f t="shared" si="0"/>
         <v>0.23999999999999977</v>
       </c>
-      <c r="E9" s="25">
-        <f>-$C$3*D9</f>
+      <c r="E9" s="19">
+        <f t="shared" si="1"/>
         <v>-0.14399999999999985</v>
       </c>
-      <c r="F9" s="24">
-        <f t="shared" si="0"/>
+      <c r="F9" s="18">
+        <f t="shared" si="3"/>
         <v>1.4399999999999972E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="25">
-        <f>C9+E9</f>
+      <c r="C10" s="19">
+        <f t="shared" si="2"/>
         <v>-2.3999999999999966E-2</v>
       </c>
-      <c r="D10" s="25">
-        <f>2*C10</f>
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
         <v>-4.7999999999999932E-2</v>
       </c>
-      <c r="E10" s="25">
-        <f>-$C$3*D10</f>
+      <c r="E10" s="19">
+        <f t="shared" si="1"/>
         <v>2.8799999999999958E-2</v>
       </c>
-      <c r="F10" s="24">
-        <f t="shared" si="0"/>
+      <c r="F10" s="18">
+        <f t="shared" si="3"/>
         <v>5.7599999999999839E-4</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="25">
-        <f>C10+E10</f>
+      <c r="C11" s="19">
+        <f t="shared" si="2"/>
         <v>4.7999999999999918E-3</v>
       </c>
-      <c r="D11" s="25">
-        <f>2*C11</f>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
         <v>9.5999999999999835E-3</v>
       </c>
-      <c r="E11" s="25">
-        <f>-$C$3*D11</f>
+      <c r="E11" s="19">
+        <f t="shared" si="1"/>
         <v>-5.75999999999999E-3</v>
       </c>
-      <c r="F11" s="24">
-        <f t="shared" si="0"/>
+      <c r="F11" s="18">
+        <f t="shared" si="3"/>
         <v>2.3039999999999922E-5</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="25">
-        <f>C11+E11</f>
+      <c r="C12" s="19">
+        <f t="shared" si="2"/>
         <v>-9.5999999999999818E-4</v>
       </c>
-      <c r="D12" s="25">
-        <f>2*C12</f>
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
         <v>-1.9199999999999964E-3</v>
       </c>
-      <c r="E12" s="25">
-        <f>-$C$3*D12</f>
+      <c r="E12" s="19">
+        <f t="shared" si="1"/>
         <v>1.1519999999999979E-3</v>
       </c>
-      <c r="F12" s="24">
-        <f t="shared" si="0"/>
+      <c r="F12" s="18">
+        <f t="shared" si="3"/>
         <v>9.215999999999965E-7</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="25">
-        <f>C12+E12</f>
+      <c r="C13" s="19">
+        <f t="shared" si="2"/>
         <v>1.9199999999999968E-4</v>
       </c>
-      <c r="D13" s="25">
-        <f>2*C13</f>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
         <v>3.8399999999999936E-4</v>
       </c>
-      <c r="E13" s="25">
-        <f>-$C$3*D13</f>
+      <c r="E13" s="19">
+        <f t="shared" si="1"/>
         <v>-2.3039999999999961E-4</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
+      <c r="F13" s="18">
+        <f t="shared" si="3"/>
         <v>3.6863999999999879E-8</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C14" s="25">
-        <f>C13+E13</f>
+      <c r="C14" s="19">
+        <f t="shared" si="2"/>
         <v>-3.839999999999993E-5</v>
       </c>
-      <c r="D14" s="25">
-        <f>2*C14</f>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
         <v>-7.6799999999999861E-5</v>
       </c>
-      <c r="E14" s="25">
-        <f>-$C$3*D14</f>
+      <c r="E14" s="19">
+        <f t="shared" si="1"/>
         <v>4.6079999999999918E-5</v>
       </c>
-      <c r="F14" s="24">
-        <f t="shared" si="0"/>
+      <c r="F14" s="18">
+        <f t="shared" si="3"/>
         <v>1.4745599999999948E-9</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="25">
-        <f>C14+E14</f>
+      <c r="C15" s="19">
+        <f t="shared" si="2"/>
         <v>7.6799999999999875E-6</v>
       </c>
-      <c r="D15" s="25">
-        <f>2*C15</f>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
         <v>1.5359999999999975E-5</v>
       </c>
-      <c r="E15" s="25">
-        <f>-$C$3*D15</f>
+      <c r="E15" s="19">
+        <f t="shared" si="1"/>
         <v>-9.2159999999999843E-6</v>
       </c>
-      <c r="F15" s="24">
-        <f t="shared" si="0"/>
+      <c r="F15" s="18">
+        <f t="shared" si="3"/>
         <v>5.8982399999999808E-11</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="25">
-        <f>C15+E15</f>
+      <c r="C16" s="19">
+        <f t="shared" si="2"/>
         <v>-1.5359999999999968E-6</v>
       </c>
-      <c r="D16" s="25">
-        <f>2*C16</f>
+      <c r="D16" s="19">
+        <f t="shared" si="0"/>
         <v>-3.0719999999999936E-6</v>
       </c>
-      <c r="E16" s="25">
-        <f>-$C$3*D16</f>
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
         <v>1.8431999999999962E-6</v>
       </c>
-      <c r="F16" s="24">
-        <f t="shared" si="0"/>
+      <c r="F16" s="18">
+        <f t="shared" si="3"/>
         <v>2.3592959999999903E-12</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="25">
-        <f>C16+E16</f>
+      <c r="C17" s="19">
+        <f t="shared" si="2"/>
         <v>3.0719999999999936E-7</v>
       </c>
-      <c r="D17" s="25">
-        <f>2*C17</f>
+      <c r="D17" s="19">
+        <f t="shared" si="0"/>
         <v>6.1439999999999873E-7</v>
       </c>
-      <c r="E17" s="25">
-        <f>-$C$3*D17</f>
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
         <v>-3.686399999999992E-7</v>
       </c>
-      <c r="F17" s="24">
-        <f t="shared" si="0"/>
+      <c r="F17" s="18">
+        <f t="shared" si="3"/>
         <v>9.4371839999999611E-14</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="25">
-        <f>C17+E17</f>
+      <c r="C18" s="19">
+        <f t="shared" si="2"/>
         <v>-6.1439999999999841E-8</v>
       </c>
-      <c r="D18" s="25">
-        <f>2*C18</f>
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
         <v>-1.2287999999999968E-7</v>
       </c>
-      <c r="E18" s="25">
-        <f>-$C$3*D18</f>
+      <c r="E18" s="19">
+        <f t="shared" si="1"/>
         <v>7.3727999999999812E-8</v>
       </c>
-      <c r="F18" s="24">
-        <f t="shared" si="0"/>
+      <c r="F18" s="18">
+        <f t="shared" si="3"/>
         <v>3.7748735999999802E-15</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="25">
-        <f>C18+E18</f>
+      <c r="C19" s="19">
+        <f t="shared" si="2"/>
         <v>1.2287999999999971E-8</v>
       </c>
-      <c r="D19" s="25">
-        <f>2*C19</f>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
         <v>2.4575999999999942E-8</v>
       </c>
-      <c r="E19" s="25">
-        <f>-$C$3*D19</f>
+      <c r="E19" s="19">
+        <f t="shared" si="1"/>
         <v>-1.4745599999999964E-8</v>
       </c>
-      <c r="F19" s="24">
-        <f t="shared" si="0"/>
+      <c r="F19" s="18">
+        <f t="shared" si="3"/>
         <v>1.5099494399999928E-16</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="C20" s="25">
-        <f>C19+E19</f>
+      <c r="C20" s="19">
+        <f t="shared" si="2"/>
         <v>-2.4575999999999928E-9</v>
       </c>
-      <c r="D20" s="25">
-        <f>2*C20</f>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
         <v>-4.9151999999999857E-9</v>
       </c>
-      <c r="E20" s="25">
-        <f>-$C$3*D20</f>
+      <c r="E20" s="19">
+        <f t="shared" si="1"/>
         <v>2.9491199999999912E-9</v>
       </c>
-      <c r="F20" s="24">
-        <f t="shared" si="0"/>
+      <c r="F20" s="18">
+        <f t="shared" si="3"/>
         <v>6.0397977599999644E-18</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="25">
-        <f>C20+E20</f>
+      <c r="C21" s="19">
+        <f t="shared" si="2"/>
         <v>4.9151999999999832E-10</v>
       </c>
-      <c r="D21" s="25">
-        <f>2*C21</f>
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
         <v>9.8303999999999664E-10</v>
       </c>
-      <c r="E21" s="25">
-        <f>-$C$3*D21</f>
+      <c r="E21" s="19">
+        <f t="shared" si="1"/>
         <v>-5.89823999999998E-10</v>
       </c>
-      <c r="F21" s="24">
-        <f t="shared" si="0"/>
+      <c r="F21" s="18">
+        <f t="shared" si="3"/>
         <v>2.4159191039999835E-19</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="C22" s="25">
-        <f>C21+E21</f>
+      <c r="C22" s="19">
+        <f t="shared" si="2"/>
         <v>-9.8303999999999685E-11</v>
       </c>
-      <c r="D22" s="25">
-        <f>2*C22</f>
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
         <v>-1.9660799999999937E-10</v>
       </c>
-      <c r="E22" s="25">
-        <f>-$C$3*D22</f>
+      <c r="E22" s="19">
+        <f t="shared" si="1"/>
         <v>1.1796479999999962E-10</v>
       </c>
-      <c r="F22" s="24">
-        <f t="shared" si="0"/>
+      <c r="F22" s="18">
+        <f t="shared" si="3"/>
         <v>9.6636764159999376E-21</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>16</v>
       </c>
-      <c r="C23" s="25">
-        <f>C22+E22</f>
+      <c r="C23" s="19">
+        <f t="shared" si="2"/>
         <v>1.9660799999999932E-11</v>
       </c>
-      <c r="D23" s="25">
-        <f>2*C23</f>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
         <v>3.9321599999999863E-11</v>
       </c>
-      <c r="E23" s="25">
-        <f>-$C$3*D23</f>
+      <c r="E23" s="19">
+        <f t="shared" si="1"/>
         <v>-2.3592959999999918E-11</v>
       </c>
-      <c r="F23" s="24">
-        <f t="shared" si="0"/>
+      <c r="F23" s="18">
+        <f t="shared" si="3"/>
         <v>3.8654705663999732E-22</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="25">
-        <f>C23+E23</f>
+      <c r="C24" s="19">
+        <f t="shared" si="2"/>
         <v>-3.9321599999999863E-12</v>
       </c>
-      <c r="D24" s="25">
-        <f>2*C24</f>
+      <c r="D24" s="19">
+        <f t="shared" si="0"/>
         <v>-7.8643199999999727E-12</v>
       </c>
-      <c r="E24" s="25">
-        <f>-$C$3*D24</f>
+      <c r="E24" s="19">
+        <f t="shared" si="1"/>
         <v>4.7185919999999838E-12</v>
       </c>
-      <c r="F24" s="24">
-        <f t="shared" si="0"/>
+      <c r="F24" s="18">
+        <f t="shared" si="3"/>
         <v>1.5461882265599893E-23</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>18</v>
       </c>
-      <c r="C25" s="25">
-        <f>C24+E24</f>
+      <c r="C25" s="19">
+        <f t="shared" si="2"/>
         <v>7.8643199999999743E-13</v>
       </c>
-      <c r="D25" s="25">
-        <f>2*C25</f>
+      <c r="D25" s="19">
+        <f t="shared" si="0"/>
         <v>1.5728639999999949E-12</v>
       </c>
-      <c r="E25" s="25">
-        <f>-$C$3*D25</f>
+      <c r="E25" s="19">
+        <f t="shared" si="1"/>
         <v>-9.437183999999968E-13</v>
       </c>
-      <c r="F25" s="24">
-        <f t="shared" si="0"/>
+      <c r="F25" s="18">
+        <f t="shared" si="3"/>
         <v>6.1847529062399599E-25</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="C26" s="25">
-        <f>C25+E25</f>
+      <c r="C26" s="19">
+        <f t="shared" si="2"/>
         <v>-1.5728639999999937E-13</v>
       </c>
-      <c r="D26" s="25">
-        <f>2*C26</f>
+      <c r="D26" s="19">
+        <f t="shared" si="0"/>
         <v>-3.1457279999999873E-13</v>
       </c>
-      <c r="E26" s="25">
-        <f>-$C$3*D26</f>
+      <c r="E26" s="19">
+        <f t="shared" si="1"/>
         <v>1.8874367999999922E-13</v>
       </c>
-      <c r="F26" s="24">
-        <f t="shared" si="0"/>
+      <c r="F26" s="18">
+        <f t="shared" si="3"/>
         <v>2.47390116249598E-26</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>20</v>
       </c>
-      <c r="C27" s="25">
-        <f>C26+E26</f>
+      <c r="C27" s="19">
+        <f t="shared" si="2"/>
         <v>3.1457279999999858E-14</v>
       </c>
-      <c r="D27" s="25">
-        <f>2*C27</f>
+      <c r="D27" s="19">
+        <f t="shared" si="0"/>
         <v>6.2914559999999716E-14</v>
       </c>
-      <c r="E27" s="25">
-        <f>-$C$3*D27</f>
+      <c r="E27" s="19">
+        <f t="shared" si="1"/>
         <v>-3.7748735999999827E-14</v>
       </c>
-      <c r="F27" s="24">
-        <f t="shared" si="0"/>
+      <c r="F27" s="18">
+        <f t="shared" si="3"/>
         <v>9.8956046499839105E-28</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>21</v>
       </c>
-      <c r="C28" s="25">
-        <f>C27+E27</f>
+      <c r="C28" s="19">
+        <f t="shared" si="2"/>
         <v>-6.291455999999969E-15</v>
       </c>
-      <c r="D28" s="25">
-        <f>2*C28</f>
+      <c r="D28" s="19">
+        <f t="shared" si="0"/>
         <v>-1.2582911999999938E-14</v>
       </c>
-      <c r="E28" s="25">
-        <f>-$C$3*D28</f>
+      <c r="E28" s="19">
+        <f t="shared" si="1"/>
         <v>7.5497471999999619E-15</v>
       </c>
-      <c r="F28" s="24">
-        <f t="shared" si="0"/>
+      <c r="F28" s="18">
+        <f t="shared" si="3"/>
         <v>3.9582418599935608E-29</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>22</v>
       </c>
-      <c r="C29" s="25">
-        <f>C28+E28</f>
+      <c r="C29" s="19">
+        <f t="shared" si="2"/>
         <v>1.2582911999999929E-15</v>
       </c>
-      <c r="D29" s="25">
-        <f>2*C29</f>
+      <c r="D29" s="19">
+        <f t="shared" si="0"/>
         <v>2.5165823999999857E-15</v>
       </c>
-      <c r="E29" s="25">
-        <f>-$C$3*D29</f>
+      <c r="E29" s="19">
+        <f t="shared" si="1"/>
         <v>-1.5099494399999914E-15</v>
       </c>
-      <c r="F29" s="24">
-        <f t="shared" si="0"/>
+      <c r="F29" s="18">
+        <f t="shared" si="3"/>
         <v>1.5832967439974221E-30</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>23</v>
       </c>
-      <c r="C30" s="25">
-        <f>C29+E29</f>
+      <c r="C30" s="19">
+        <f t="shared" si="2"/>
         <v>-2.5165823999999857E-16</v>
       </c>
-      <c r="D30" s="25">
-        <f>2*C30</f>
+      <c r="D30" s="19">
+        <f t="shared" si="0"/>
         <v>-5.0331647999999715E-16</v>
       </c>
-      <c r="E30" s="25">
-        <f>-$C$3*D30</f>
+      <c r="E30" s="19">
+        <f t="shared" si="1"/>
         <v>3.0198988799999826E-16</v>
       </c>
-      <c r="F30" s="24">
-        <f t="shared" si="0"/>
+      <c r="F30" s="18">
+        <f t="shared" si="3"/>
         <v>6.3331869759896878E-32</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>24</v>
       </c>
-      <c r="C31" s="25">
-        <f>C30+E30</f>
+      <c r="C31" s="19">
+        <f t="shared" si="2"/>
         <v>5.0331647999999685E-17</v>
       </c>
-      <c r="D31" s="25">
-        <f>2*C31</f>
+      <c r="D31" s="19">
+        <f t="shared" si="0"/>
         <v>1.0066329599999937E-16</v>
       </c>
-      <c r="E31" s="25">
-        <f>-$C$3*D31</f>
+      <c r="E31" s="19">
+        <f t="shared" si="1"/>
         <v>-6.0397977599999619E-17</v>
       </c>
-      <c r="F31" s="24">
-        <f t="shared" si="0"/>
+      <c r="F31" s="18">
+        <f t="shared" si="3"/>
         <v>2.5332747903958721E-33</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>25</v>
       </c>
-      <c r="C32" s="25">
-        <f>C31+E31</f>
+      <c r="C32" s="19">
+        <f t="shared" si="2"/>
         <v>-1.0066329599999935E-17</v>
       </c>
-      <c r="D32" s="25">
-        <f>2*C32</f>
+      <c r="D32" s="19">
+        <f t="shared" si="0"/>
         <v>-2.0132659199999869E-17</v>
       </c>
-      <c r="E32" s="25">
-        <f>-$C$3*D32</f>
+      <c r="E32" s="19">
+        <f t="shared" si="1"/>
         <v>1.2079595519999921E-17</v>
       </c>
-      <c r="F32" s="24">
-        <f t="shared" si="0"/>
+      <c r="F32" s="18">
+        <f t="shared" si="3"/>
         <v>1.0133099161583485E-34</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>26</v>
       </c>
-      <c r="C33" s="25">
-        <f>C32+E32</f>
+      <c r="C33" s="19">
+        <f t="shared" si="2"/>
         <v>2.0132659199999866E-18</v>
       </c>
-      <c r="D33" s="25">
-        <f>2*C33</f>
+      <c r="D33" s="19">
+        <f t="shared" si="0"/>
         <v>4.0265318399999732E-18</v>
       </c>
-      <c r="E33" s="25">
-        <f>-$C$3*D33</f>
+      <c r="E33" s="19">
+        <f t="shared" si="1"/>
         <v>-2.4159191039999839E-18</v>
       </c>
-      <c r="F33" s="24">
-        <f t="shared" si="0"/>
+      <c r="F33" s="18">
+        <f t="shared" si="3"/>
         <v>4.0532396646333923E-36</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>27</v>
       </c>
-      <c r="C34" s="25">
-        <f>C33+E33</f>
+      <c r="C34" s="19">
+        <f t="shared" si="2"/>
         <v>-4.0265318399999732E-19</v>
       </c>
-      <c r="D34" s="25">
-        <f>2*C34</f>
+      <c r="D34" s="19">
+        <f t="shared" si="0"/>
         <v>-8.0530636799999464E-19</v>
       </c>
-      <c r="E34" s="25">
-        <f>-$C$3*D34</f>
+      <c r="E34" s="19">
+        <f t="shared" si="1"/>
         <v>4.831838207999968E-19</v>
       </c>
-      <c r="F34" s="24">
-        <f t="shared" si="0"/>
+      <c r="F34" s="18">
+        <f t="shared" si="3"/>
         <v>1.621295865853357E-37</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>28</v>
       </c>
-      <c r="C35" s="25">
-        <f>C34+E34</f>
+      <c r="C35" s="19">
+        <f t="shared" si="2"/>
         <v>8.0530636799999483E-20</v>
       </c>
-      <c r="D35" s="25">
-        <f>2*C35</f>
+      <c r="D35" s="19">
+        <f t="shared" si="0"/>
         <v>1.6106127359999897E-19</v>
       </c>
-      <c r="E35" s="25">
-        <f>-$C$3*D35</f>
+      <c r="E35" s="19">
+        <f t="shared" si="1"/>
         <v>-9.6636764159999382E-20</v>
       </c>
-      <c r="F35" s="24">
-        <f t="shared" si="0"/>
+      <c r="F35" s="18">
+        <f t="shared" si="3"/>
         <v>6.4851834634134308E-39</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>29</v>
       </c>
-      <c r="C36" s="25">
-        <f>C35+E35</f>
+      <c r="C36" s="19">
+        <f t="shared" si="2"/>
         <v>-1.6106127359999899E-20</v>
       </c>
-      <c r="D36" s="25">
-        <f>2*C36</f>
+      <c r="D36" s="19">
+        <f t="shared" si="0"/>
         <v>-3.2212254719999798E-20</v>
       </c>
-      <c r="E36" s="25">
-        <f>-$C$3*D36</f>
+      <c r="E36" s="19">
+        <f t="shared" si="1"/>
         <v>1.9327352831999878E-20</v>
       </c>
-      <c r="F36" s="24">
-        <f t="shared" si="0"/>
+      <c r="F36" s="18">
+        <f t="shared" si="3"/>
         <v>2.5940733853653732E-40</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>30</v>
       </c>
-      <c r="C37" s="26">
-        <f>C36+E36</f>
+      <c r="C37" s="20">
+        <f t="shared" si="2"/>
         <v>3.2212254719999792E-21</v>
       </c>
-      <c r="D37" s="26">
-        <f>2*C37</f>
+      <c r="D37" s="20">
+        <f t="shared" si="0"/>
         <v>6.4424509439999584E-21</v>
       </c>
-      <c r="E37" s="26">
-        <f>-$C$3*D37</f>
+      <c r="E37" s="20">
+        <f t="shared" si="1"/>
         <v>-3.8654705663999747E-21</v>
       </c>
-      <c r="F37" s="24">
-        <f t="shared" si="0"/>
+      <c r="F37" s="18">
+        <f t="shared" si="3"/>
         <v>1.0376293541461489E-41</v>
       </c>
     </row>
@@ -1628,11 +1629,11 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="9" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.6328125" customWidth="1"/>
+    <col min="3" max="9" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1">
@@ -1654,23 +1655,23 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16">
+    <row r="6" spans="2:9" ht="17">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1686,1033 +1687,1033 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f>2*C7</f>
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>2*D7</f>
         <v>4</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>-$C$3*E7</f>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>-$C$3*F7</f>
         <v>-0.4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>C7^2+D7^2</f>
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <f>C7+G7</f>
         <v>2.4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f>D7+H7</f>
         <v>1.6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f>2*C8</f>
         <v>4.8</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f>2*D8</f>
         <v>3.2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" ref="G8:G27" si="0">-$C$3*E8</f>
         <v>-0.48</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" ref="H8:H27" si="1">-$C$3*F8</f>
         <v>-0.32000000000000006</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f t="shared" ref="I8:I37" si="2">C8^2+D8^2</f>
         <v>8.32</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <f t="shared" ref="C9:C27" si="3">C8+G8</f>
         <v>1.92</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" ref="D9:D27" si="4">D8+H8</f>
         <v>1.28</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" ref="E9:E27" si="5">2*C9</f>
         <v>3.84</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" ref="F9:F27" si="6">2*D9</f>
         <v>2.56</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>-0.38400000000000001</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>-0.25600000000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f t="shared" si="2"/>
         <v>5.3247999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f t="shared" si="3"/>
         <v>1.536</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="4"/>
         <v>1.024</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="5"/>
         <v>3.0720000000000001</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="6"/>
         <v>2.048</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>-0.30720000000000003</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>-0.20480000000000001</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f t="shared" si="2"/>
         <v>3.4078720000000002</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f t="shared" si="3"/>
         <v>1.2288000000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="4"/>
         <v>0.81920000000000004</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="5"/>
         <v>2.4576000000000002</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="6"/>
         <v>1.6384000000000001</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>-0.24576000000000003</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>-0.16384000000000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f t="shared" si="2"/>
         <v>2.1810380800000004</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f t="shared" si="3"/>
         <v>0.98304000000000014</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="4"/>
         <v>0.65536000000000005</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="5"/>
         <v>1.9660800000000003</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="6"/>
         <v>1.3107200000000001</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>-0.19660800000000003</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>-0.13107200000000002</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f t="shared" si="2"/>
         <v>1.3958643712000003</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f t="shared" si="3"/>
         <v>0.78643200000000013</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="4"/>
         <v>0.52428800000000009</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="5"/>
         <v>1.5728640000000003</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="6"/>
         <v>1.0485760000000002</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>-0.15728640000000005</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>-0.10485760000000002</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f t="shared" si="2"/>
         <v>0.89335319756800025</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f t="shared" si="3"/>
         <v>0.62914560000000008</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="4"/>
         <v>0.41943040000000009</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="5"/>
         <v>1.2582912000000002</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="6"/>
         <v>0.83886080000000018</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>-0.12582912000000002</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>-8.388608000000003E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f t="shared" si="2"/>
         <v>0.57174604644352023</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f t="shared" si="3"/>
         <v>0.50331648000000007</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="4"/>
         <v>0.33554432000000006</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f t="shared" si="5"/>
         <v>1.0066329600000001</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="6"/>
         <v>0.67108864000000013</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>-0.10066329600000001</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>-6.7108864000000018E-2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f t="shared" si="2"/>
         <v>0.36591746972385292</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" si="3"/>
         <v>0.40265318400000005</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="4"/>
         <v>0.26843545600000007</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f t="shared" si="5"/>
         <v>0.80530636800000011</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="6"/>
         <v>0.53687091200000014</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>-8.0530636800000013E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>-5.3687091200000016E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f t="shared" si="2"/>
         <v>0.23418718062326588</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <f t="shared" si="3"/>
         <v>0.32212254720000005</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="4"/>
         <v>0.21474836480000006</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f t="shared" si="5"/>
         <v>0.64424509440000011</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="6"/>
         <v>0.42949672960000013</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>-6.4424509440000013E-2</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>-4.2949672960000018E-2</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f t="shared" si="2"/>
         <v>0.14987979559889017</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f t="shared" si="3"/>
         <v>0.25769803776000005</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="4"/>
         <v>0.17179869184000005</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f t="shared" si="5"/>
         <v>0.51539607552000011</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="6"/>
         <v>0.34359738368000009</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>-5.1539607552000016E-2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>-3.4359738368000013E-2</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f t="shared" si="2"/>
         <v>9.5923069183289716E-2</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f t="shared" si="3"/>
         <v>0.20615843020800004</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" si="4"/>
         <v>0.13743895347200002</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f t="shared" si="5"/>
         <v>0.41231686041600007</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="6"/>
         <v>0.27487790694400005</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>-4.1231686041600012E-2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>-2.7487790694400008E-2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f t="shared" si="2"/>
         <v>6.1390764277305415E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <f t="shared" si="3"/>
         <v>0.16492674416640002</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f t="shared" si="4"/>
         <v>0.10995116277760002</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <f t="shared" si="5"/>
         <v>0.32985348833280004</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f t="shared" si="6"/>
         <v>0.21990232555520003</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>-3.2985348833280005E-2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
         <v>-2.1990232555520003E-2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f t="shared" si="2"/>
         <v>3.9290089137475462E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <f t="shared" si="3"/>
         <v>0.13194139533312002</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f t="shared" si="4"/>
         <v>8.7960930222080014E-2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <f t="shared" si="5"/>
         <v>0.26388279066624004</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f t="shared" si="6"/>
         <v>0.17592186044416003</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>-2.6388279066624006E-2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>-1.7592186044416005E-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f t="shared" si="2"/>
         <v>2.5145657047984295E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f t="shared" si="3"/>
         <v>0.10555311626649602</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <f t="shared" si="4"/>
         <v>7.0368744177664005E-2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <f t="shared" si="5"/>
         <v>0.21110623253299204</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f t="shared" si="6"/>
         <v>0.14073748835532801</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>-2.1110623253299206E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
         <v>-1.4073748835532801E-2</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <f t="shared" si="2"/>
         <v>1.6093220510709948E-2</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>16</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f t="shared" si="3"/>
         <v>8.4442493013196812E-2</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f t="shared" si="4"/>
         <v>5.6294995342131206E-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="5"/>
         <v>0.16888498602639362</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="6"/>
         <v>0.11258999068426241</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>-1.6888498602639364E-2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>-1.1258999068426243E-2</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f t="shared" si="2"/>
         <v>1.0299661126854365E-2</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f t="shared" si="3"/>
         <v>6.7553994410557455E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f t="shared" si="4"/>
         <v>4.5035996273704963E-2</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f t="shared" si="5"/>
         <v>0.13510798882111491</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f t="shared" si="6"/>
         <v>9.0071992547409926E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>-1.3510798882111492E-2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f t="shared" si="1"/>
         <v>-9.0071992547409926E-3</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>6.5917831211867953E-3</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>18</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f t="shared" si="3"/>
         <v>5.4043195528445963E-2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <f t="shared" si="4"/>
         <v>3.6028797018963971E-2</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="5"/>
         <v>0.10808639105689193</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" si="6"/>
         <v>7.2057594037927941E-2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>-1.0808639105689194E-2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f t="shared" si="1"/>
         <v>-7.2057594037927943E-3</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>4.2187411975595484E-3</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <f t="shared" si="3"/>
         <v>4.3234556422756767E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <f t="shared" si="4"/>
         <v>2.8823037615171177E-2</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f t="shared" si="5"/>
         <v>8.6469112845513535E-2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f t="shared" si="6"/>
         <v>5.7646075230342354E-2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>-8.6469112845513531E-3</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f t="shared" si="1"/>
         <v>-5.7646075230342354E-3</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f t="shared" si="2"/>
         <v>2.699994366438111E-3</v>
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>20</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <f t="shared" si="3"/>
         <v>3.4587645138205413E-2</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <f t="shared" si="4"/>
         <v>2.3058430092136942E-2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="5"/>
         <v>6.9175290276410825E-2</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f t="shared" si="6"/>
         <v>4.6116860184273883E-2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>-6.9175290276410825E-3</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <f t="shared" si="1"/>
         <v>-4.6116860184273883E-3</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <f t="shared" si="2"/>
         <v>1.7279963945203911E-3</v>
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>21</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <f t="shared" ref="C28:C37" si="7">C27+G27</f>
         <v>2.767011611056433E-2</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <f t="shared" ref="D28:D37" si="8">D27+H27</f>
         <v>1.8446744073709553E-2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <f t="shared" ref="E28:E37" si="9">2*C28</f>
         <v>5.534023222112866E-2</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f t="shared" ref="F28:F37" si="10">2*D28</f>
         <v>3.6893488147419107E-2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f t="shared" ref="G28:G37" si="11">-$C$3*E28</f>
         <v>-5.5340232221128662E-3</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" ref="H28:H37" si="12">-$C$3*F28</f>
         <v>-3.6893488147419109E-3</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <f t="shared" si="2"/>
         <v>1.1059176924930502E-3</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>22</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <f t="shared" si="7"/>
         <v>2.2136092888451465E-2</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <f t="shared" si="8"/>
         <v>1.4757395258967642E-2</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f t="shared" si="9"/>
         <v>4.4272185776902929E-2</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f t="shared" si="10"/>
         <v>2.9514790517935284E-2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <f t="shared" si="11"/>
         <v>-4.4272185776902933E-3</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <f t="shared" si="12"/>
         <v>-2.9514790517935286E-3</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>7.0778732319555211E-4</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>23</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <f t="shared" si="7"/>
         <v>1.7708874310761173E-2</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <f t="shared" si="8"/>
         <v>1.1805916207174114E-2</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <f t="shared" si="9"/>
         <v>3.5417748621522346E-2</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <f t="shared" si="10"/>
         <v>2.3611832414348229E-2</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f t="shared" si="11"/>
         <v>-3.5417748621522347E-3</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <f t="shared" si="12"/>
         <v>-2.3611832414348229E-3</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>4.5298388684515342E-4</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>24</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <f t="shared" si="7"/>
         <v>1.4167099448608939E-2</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <f t="shared" si="8"/>
         <v>9.4447329657392914E-3</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <f t="shared" si="9"/>
         <v>2.8334198897217878E-2</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <f t="shared" si="10"/>
         <v>1.8889465931478583E-2</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <f t="shared" si="11"/>
         <v>-2.8334198897217878E-3</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <f t="shared" si="12"/>
         <v>-1.8889465931478584E-3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <f t="shared" si="2"/>
         <v>2.8990968758089823E-4</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>25</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <f t="shared" si="7"/>
         <v>1.1333679558887151E-2</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <f t="shared" si="8"/>
         <v>7.5557863725914335E-3</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <f t="shared" si="9"/>
         <v>2.2667359117774302E-2</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <f t="shared" si="10"/>
         <v>1.5111572745182867E-2</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f t="shared" si="11"/>
         <v>-2.2667359117774302E-3</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <f t="shared" si="12"/>
         <v>-1.5111572745182867E-3</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <f t="shared" si="2"/>
         <v>1.8554220005177486E-4</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>26</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <f t="shared" si="7"/>
         <v>9.0669436471097209E-3</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <f t="shared" si="8"/>
         <v>6.044629098073147E-3</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <f t="shared" si="9"/>
         <v>1.8133887294219442E-2</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <f t="shared" si="10"/>
         <v>1.2089258196146294E-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <f t="shared" si="11"/>
         <v>-1.8133887294219443E-3</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <f t="shared" si="12"/>
         <v>-1.2089258196146294E-3</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <f t="shared" si="2"/>
         <v>1.1874700803313592E-4</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>27</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <f t="shared" si="7"/>
         <v>7.2535549176877771E-3</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <f t="shared" si="8"/>
         <v>4.8357032784585178E-3</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <f t="shared" si="9"/>
         <v>1.4507109835375554E-2</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <f t="shared" si="10"/>
         <v>9.6714065569170355E-3</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <f t="shared" si="11"/>
         <v>-1.4507109835375555E-3</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <f t="shared" si="12"/>
         <v>-9.6714065569170364E-4</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <f t="shared" si="2"/>
         <v>7.5998085141206991E-5</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>28</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <f t="shared" si="7"/>
         <v>5.8028439341502218E-3</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <f t="shared" si="8"/>
         <v>3.8685626227668141E-3</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <f t="shared" si="9"/>
         <v>1.1605687868300444E-2</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <f t="shared" si="10"/>
         <v>7.7371252455336282E-3</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <f t="shared" si="11"/>
         <v>-1.1605687868300443E-3</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <f t="shared" si="12"/>
         <v>-7.7371252455336284E-4</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <f t="shared" si="2"/>
         <v>4.8638774490372474E-5</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>29</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <f t="shared" si="7"/>
         <v>4.6422751473201773E-3</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <f t="shared" si="8"/>
         <v>3.0948500982134514E-3</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <f t="shared" si="9"/>
         <v>9.2845502946403546E-3</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <f t="shared" si="10"/>
         <v>6.1897001964269028E-3</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <f t="shared" si="11"/>
         <v>-9.284550294640355E-4</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <f t="shared" si="12"/>
         <v>-6.189700196426903E-4</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <f t="shared" si="2"/>
         <v>3.1128815673838386E-5</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>30</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <f t="shared" si="7"/>
         <v>3.713820117856142E-3</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <f t="shared" si="8"/>
         <v>2.4758800785707612E-3</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <f t="shared" si="9"/>
         <v>7.427640235712284E-3</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <f t="shared" si="10"/>
         <v>4.9517601571415224E-3</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <f t="shared" si="11"/>
         <v>-7.4276402357122844E-4</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <f t="shared" si="12"/>
         <v>-4.9517601571415226E-4</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <f t="shared" si="2"/>
         <v>1.9922442031256565E-5</v>
       </c>
@@ -2732,18 +2733,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF46A4CB-3C30-D741-B184-6A30A390ABF7}">
   <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="11" style="15" customWidth="1"/>
+    <col min="2" max="2" width="3.6328125" customWidth="1"/>
+    <col min="3" max="7" width="7.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="9" max="11" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" customHeight="1">
@@ -2765,26 +2766,26 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="16" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16">
+    <row r="6" spans="2:12" ht="17">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2797,1416 +2798,1416 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" ref="F7:F37" si="0">2*C7</f>
         <v>6</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" ref="G7:G37" si="1">2*D7</f>
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <f t="shared" ref="H7:H37" si="2">2*E7</f>
         <v>2</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <f>-$C$3*F7</f>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <f>-$C$3*G7</f>
         <v>-0.4</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <f>-$C$3*H7</f>
         <v>-0.2</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <f t="shared" ref="L7:L35" si="3">C7^2+D7^2+E7^2</f>
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <f t="shared" ref="C8:C37" si="4">C7+I7</f>
         <v>2.4</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <f t="shared" ref="D8:D37" si="5">D7+J7</f>
         <v>1.6</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <f t="shared" ref="E8:E37" si="6">E7+K7</f>
         <v>0.8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <f t="shared" ref="I8:K27" si="7">-$C$3*F8</f>
         <v>-0.48</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <f t="shared" si="7"/>
         <v>-0.32000000000000006</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <f t="shared" si="7"/>
         <v>-0.16000000000000003</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <f t="shared" si="3"/>
         <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <f t="shared" si="4"/>
         <v>1.92</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f t="shared" si="5"/>
         <v>1.28</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <f t="shared" si="6"/>
         <v>0.64</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <f t="shared" si="7"/>
         <v>-0.38400000000000001</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <f t="shared" si="7"/>
         <v>-0.25600000000000001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <f t="shared" si="7"/>
         <v>-0.128</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f t="shared" si="3"/>
         <v>5.7343999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <f t="shared" si="4"/>
         <v>1.536</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <f t="shared" si="5"/>
         <v>1.024</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f t="shared" si="6"/>
         <v>0.51200000000000001</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>3.0720000000000001</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>2.048</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f t="shared" si="2"/>
         <v>1.024</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f t="shared" si="7"/>
         <v>-0.30720000000000003</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <f t="shared" si="7"/>
         <v>-0.20480000000000001</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <f t="shared" si="7"/>
         <v>-0.1024</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <f t="shared" si="3"/>
         <v>3.6700160000000004</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <f t="shared" si="4"/>
         <v>1.2288000000000001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <f t="shared" si="5"/>
         <v>0.81920000000000004</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <f t="shared" si="6"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>2.4576000000000002</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>1.6384000000000001</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <f t="shared" si="2"/>
         <v>0.81920000000000004</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <f t="shared" si="7"/>
         <v>-0.24576000000000003</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <f t="shared" si="7"/>
         <v>-0.16384000000000001</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <f t="shared" si="7"/>
         <v>-8.1920000000000007E-2</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <f t="shared" si="3"/>
         <v>2.3488102400000006</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <f t="shared" si="4"/>
         <v>0.98304000000000014</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f t="shared" si="5"/>
         <v>0.65536000000000005</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f t="shared" si="6"/>
         <v>0.32768000000000003</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>1.9660800000000003</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>1.3107200000000001</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f t="shared" si="2"/>
         <v>0.65536000000000005</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <f t="shared" si="7"/>
         <v>-0.19660800000000003</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <f t="shared" si="7"/>
         <v>-0.13107200000000002</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <f t="shared" si="7"/>
         <v>-6.5536000000000011E-2</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f t="shared" si="3"/>
         <v>1.5032385536000004</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <f t="shared" si="4"/>
         <v>0.78643200000000013</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f t="shared" si="5"/>
         <v>0.52428800000000009</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <f t="shared" si="6"/>
         <v>0.26214400000000004</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>1.5728640000000003</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <f t="shared" si="1"/>
         <v>1.0485760000000002</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <f t="shared" si="2"/>
         <v>0.52428800000000009</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <f t="shared" si="7"/>
         <v>-0.15728640000000005</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <f t="shared" si="7"/>
         <v>-0.10485760000000002</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <f t="shared" ref="K13:K37" si="8">-$C$3*H13</f>
         <v>-5.2428800000000012E-2</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="15">
         <f t="shared" si="3"/>
         <v>0.96207267430400023</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <f t="shared" si="4"/>
         <v>0.62914560000000008</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <f t="shared" si="5"/>
         <v>0.41943040000000009</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <f t="shared" si="6"/>
         <v>0.20971520000000005</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>1.2582912000000002</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
         <v>0.83886080000000018</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <f t="shared" si="2"/>
         <v>0.41943040000000009</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <f t="shared" si="7"/>
         <v>-0.12582912000000002</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <f t="shared" si="7"/>
         <v>-8.388608000000003E-2</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="11">
         <f t="shared" si="8"/>
         <v>-4.1943040000000015E-2</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <f t="shared" si="3"/>
         <v>0.61572651155456026</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <f t="shared" si="4"/>
         <v>0.50331648000000007</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f t="shared" si="5"/>
         <v>0.33554432000000006</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <f t="shared" si="6"/>
         <v>0.16777216000000003</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>1.0066329600000001</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f t="shared" si="1"/>
         <v>0.67108864000000013</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f t="shared" si="2"/>
         <v>0.33554432000000006</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <f t="shared" si="7"/>
         <v>-0.10066329600000001</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <f t="shared" si="7"/>
         <v>-6.7108864000000018E-2</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="11">
         <f t="shared" si="8"/>
         <v>-3.3554432000000009E-2</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <f t="shared" si="3"/>
         <v>0.39406496739491853</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <f t="shared" si="4"/>
         <v>0.40265318400000005</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <f t="shared" si="5"/>
         <v>0.26843545600000007</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <f t="shared" si="6"/>
         <v>0.13421772800000004</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>0.80530636800000011</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <f t="shared" si="1"/>
         <v>0.53687091200000014</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <f t="shared" si="2"/>
         <v>0.26843545600000007</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <f t="shared" si="7"/>
         <v>-8.0530636800000013E-2</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <f t="shared" si="7"/>
         <v>-5.3687091200000016E-2</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <f t="shared" si="8"/>
         <v>-2.6843545600000008E-2</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <f t="shared" si="3"/>
         <v>0.25220157913274788</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <f t="shared" si="4"/>
         <v>0.32212254720000005</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <f t="shared" si="5"/>
         <v>0.21474836480000006</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <f t="shared" si="6"/>
         <v>0.10737418240000003</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>0.64424509440000011</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <f t="shared" si="1"/>
         <v>0.42949672960000013</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <f t="shared" si="2"/>
         <v>0.21474836480000006</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <f t="shared" si="7"/>
         <v>-6.4424509440000013E-2</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <f t="shared" si="7"/>
         <v>-4.2949672960000018E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <f t="shared" si="8"/>
         <v>-2.1474836480000009E-2</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="15">
         <f t="shared" si="3"/>
         <v>0.16140901064495863</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <f t="shared" si="4"/>
         <v>0.25769803776000005</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <f t="shared" si="5"/>
         <v>0.17179869184000005</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <f t="shared" si="6"/>
         <v>8.5899345920000023E-2</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>0.51539607552000011</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <f t="shared" si="1"/>
         <v>0.34359738368000009</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f t="shared" si="2"/>
         <v>0.17179869184000005</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <f t="shared" si="7"/>
         <v>-5.1539607552000016E-2</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <f t="shared" si="7"/>
         <v>-3.4359738368000013E-2</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <f t="shared" si="8"/>
         <v>-1.7179869184000007E-2</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f t="shared" si="3"/>
         <v>0.10330176681277355</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <f t="shared" si="4"/>
         <v>0.20615843020800004</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <f t="shared" si="5"/>
         <v>0.13743895347200002</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <f t="shared" si="6"/>
         <v>6.8719476736000012E-2</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>0.41231686041600007</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <f t="shared" si="1"/>
         <v>0.27487790694400005</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <f t="shared" si="2"/>
         <v>0.13743895347200002</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <f t="shared" si="7"/>
         <v>-4.1231686041600012E-2</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <f t="shared" si="7"/>
         <v>-2.7487790694400008E-2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <f t="shared" si="8"/>
         <v>-1.3743895347200004E-2</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="15">
         <f t="shared" si="3"/>
         <v>6.6113130760175068E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <f t="shared" si="4"/>
         <v>0.16492674416640002</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <f t="shared" si="5"/>
         <v>0.10995116277760002</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <f t="shared" si="6"/>
         <v>5.4975581388800009E-2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>0.32985348833280004</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <f t="shared" si="1"/>
         <v>0.21990232555520003</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f t="shared" si="2"/>
         <v>0.10995116277760002</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <f t="shared" si="7"/>
         <v>-3.2985348833280005E-2</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <f t="shared" si="7"/>
         <v>-2.1990232555520003E-2</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <f t="shared" si="8"/>
         <v>-1.0995116277760002E-2</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15">
         <f t="shared" si="3"/>
         <v>4.2312403686512033E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <f t="shared" si="4"/>
         <v>0.13194139533312002</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <f t="shared" si="5"/>
         <v>8.7960930222080014E-2</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <f t="shared" si="6"/>
         <v>4.3980465111040007E-2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>0.26388279066624004</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <f t="shared" si="1"/>
         <v>0.17592186044416003</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <f t="shared" si="2"/>
         <v>8.7960930222080014E-2</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="11">
         <f t="shared" si="7"/>
         <v>-2.6388279066624006E-2</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <f t="shared" si="7"/>
         <v>-1.7592186044416005E-2</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <f t="shared" si="8"/>
         <v>-8.7960930222080024E-3</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <f t="shared" si="3"/>
         <v>2.7079938359367704E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <f t="shared" si="4"/>
         <v>0.10555311626649602</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <f t="shared" si="5"/>
         <v>7.0368744177664005E-2</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <f t="shared" si="6"/>
         <v>3.5184372088832003E-2</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>0.21110623253299204</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="11">
         <f t="shared" si="1"/>
         <v>0.14073748835532801</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <f t="shared" si="2"/>
         <v>7.0368744177664005E-2</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <f t="shared" si="7"/>
         <v>-2.1110623253299206E-2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <f t="shared" si="7"/>
         <v>-1.4073748835532801E-2</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="11">
         <f t="shared" si="8"/>
         <v>-7.0368744177664007E-3</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="15">
         <f t="shared" si="3"/>
         <v>1.7331160549995329E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>16</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <f t="shared" si="4"/>
         <v>8.4442493013196812E-2</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <f t="shared" si="5"/>
         <v>5.6294995342131206E-2</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <f t="shared" si="6"/>
         <v>2.8147497671065603E-2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>0.16888498602639362</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <f t="shared" si="1"/>
         <v>0.11258999068426241</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f t="shared" si="2"/>
         <v>5.6294995342131206E-2</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="11">
         <f t="shared" si="7"/>
         <v>-1.6888498602639364E-2</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="11">
         <f t="shared" si="7"/>
         <v>-1.1258999068426243E-2</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <f t="shared" si="8"/>
         <v>-5.6294995342131213E-3</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="15">
         <f t="shared" si="3"/>
         <v>1.1091942751997009E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <f t="shared" si="4"/>
         <v>6.7553994410557455E-2</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <f t="shared" si="5"/>
         <v>4.5035996273704963E-2</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <f t="shared" si="6"/>
         <v>2.2517998136852482E-2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>0.13510798882111491</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="11">
         <f t="shared" si="1"/>
         <v>9.0071992547409926E-2</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <f t="shared" si="2"/>
         <v>4.5035996273704963E-2</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <f t="shared" si="7"/>
         <v>-1.3510798882111492E-2</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <f t="shared" si="7"/>
         <v>-9.0071992547409926E-3</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <f t="shared" si="8"/>
         <v>-4.5035996273704963E-3</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <f t="shared" si="3"/>
         <v>7.098843361278087E-3</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>18</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <f t="shared" si="4"/>
         <v>5.4043195528445963E-2</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <f t="shared" si="5"/>
         <v>3.6028797018963971E-2</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <f t="shared" si="6"/>
         <v>1.8014398509481985E-2</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>0.10808639105689193</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="11">
         <f t="shared" si="1"/>
         <v>7.2057594037927941E-2</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <f t="shared" si="2"/>
         <v>3.6028797018963971E-2</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="11">
         <f t="shared" si="7"/>
         <v>-1.0808639105689194E-2</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <f t="shared" si="7"/>
         <v>-7.2057594037927943E-3</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="11">
         <f t="shared" si="8"/>
         <v>-3.6028797018963971E-3</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="15">
         <f t="shared" si="3"/>
         <v>4.543259751217975E-3</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <f t="shared" si="4"/>
         <v>4.3234556422756767E-2</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <f t="shared" si="5"/>
         <v>2.8823037615171177E-2</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <f t="shared" si="6"/>
         <v>1.4411518807585589E-2</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>8.6469112845513535E-2</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="11">
         <f t="shared" si="1"/>
         <v>5.7646075230342354E-2</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <f t="shared" si="2"/>
         <v>2.8823037615171177E-2</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="11">
         <f t="shared" si="7"/>
         <v>-8.6469112845513531E-3</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <f t="shared" si="7"/>
         <v>-5.7646075230342354E-3</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="11">
         <f t="shared" si="8"/>
         <v>-2.8823037615171177E-3</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="15">
         <f t="shared" si="3"/>
         <v>2.907686240779504E-3</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>20</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <f t="shared" si="4"/>
         <v>3.4587645138205413E-2</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <f t="shared" si="5"/>
         <v>2.3058430092136942E-2</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <f t="shared" si="6"/>
         <v>1.1529215046068471E-2</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>6.9175290276410825E-2</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
         <f t="shared" si="1"/>
         <v>4.6116860184273883E-2</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <f t="shared" si="2"/>
         <v>2.3058430092136942E-2</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="11">
         <f t="shared" si="7"/>
         <v>-6.9175290276410825E-3</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="11">
         <f t="shared" si="7"/>
         <v>-4.6116860184273883E-3</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="11">
         <f t="shared" si="8"/>
         <v>-2.3058430092136942E-3</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="15">
         <f t="shared" si="3"/>
         <v>1.8609191940988827E-3</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>21</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <f t="shared" si="4"/>
         <v>2.767011611056433E-2</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>1.8446744073709553E-2</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <f t="shared" si="6"/>
         <v>9.2233720368547767E-3</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>5.534023222112866E-2</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <f t="shared" si="1"/>
         <v>3.6893488147419107E-2</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <f t="shared" si="2"/>
         <v>1.8446744073709553E-2</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="11">
         <f t="shared" ref="I28:J37" si="9">-$C$3*F28</f>
         <v>-5.5340232221128662E-3</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <f t="shared" si="9"/>
         <v>-3.6893488147419109E-3</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <f t="shared" si="8"/>
         <v>-1.8446744073709555E-3</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="15">
         <f t="shared" si="3"/>
         <v>1.1909882842232849E-3</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>22</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <f t="shared" si="4"/>
         <v>2.2136092888451465E-2</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <f t="shared" si="5"/>
         <v>1.4757395258967642E-2</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <f t="shared" si="6"/>
         <v>7.378697629483821E-3</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>4.4272185776902929E-2</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="11">
         <f t="shared" si="1"/>
         <v>2.9514790517935284E-2</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <f t="shared" si="2"/>
         <v>1.4757395258967642E-2</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="11">
         <f t="shared" si="9"/>
         <v>-4.4272185776902933E-3</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <f t="shared" si="9"/>
         <v>-2.9514790517935286E-3</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="11">
         <f t="shared" si="8"/>
         <v>-1.4757395258967643E-3</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="15">
         <f t="shared" si="3"/>
         <v>7.6223250190290233E-4</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>23</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <f t="shared" si="4"/>
         <v>1.7708874310761173E-2</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="11">
         <f t="shared" si="5"/>
         <v>1.1805916207174114E-2</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <f t="shared" si="6"/>
         <v>5.9029581035870572E-3</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>3.5417748621522346E-2</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <f t="shared" si="1"/>
         <v>2.3611832414348229E-2</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <f t="shared" si="2"/>
         <v>1.1805916207174114E-2</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="11">
         <f t="shared" si="9"/>
         <v>-3.5417748621522347E-3</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <f t="shared" si="9"/>
         <v>-2.3611832414348229E-3</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="11">
         <f t="shared" si="8"/>
         <v>-1.1805916207174114E-3</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="15">
         <f t="shared" si="3"/>
         <v>4.8782880121785751E-4</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>24</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <f t="shared" si="4"/>
         <v>1.4167099448608939E-2</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <f t="shared" si="5"/>
         <v>9.4447329657392914E-3</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <f t="shared" si="6"/>
         <v>4.7223664828696457E-3</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>2.8334198897217878E-2</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <f t="shared" si="1"/>
         <v>1.8889465931478583E-2</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <f t="shared" si="2"/>
         <v>9.4447329657392914E-3</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="11">
         <f t="shared" si="9"/>
         <v>-2.8334198897217878E-3</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="11">
         <f t="shared" si="9"/>
         <v>-1.8889465931478584E-3</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <f t="shared" si="8"/>
         <v>-9.4447329657392919E-4</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="15">
         <f t="shared" si="3"/>
         <v>3.1221043277942888E-4</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>25</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <f t="shared" si="4"/>
         <v>1.1333679558887151E-2</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="11">
         <f t="shared" si="5"/>
         <v>7.5557863725914335E-3</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <f t="shared" si="6"/>
         <v>3.7778931862957168E-3</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="11">
         <f t="shared" si="0"/>
         <v>2.2667359117774302E-2</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <f t="shared" si="1"/>
         <v>1.5111572745182867E-2</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <f t="shared" si="2"/>
         <v>7.5557863725914335E-3</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="11">
         <f t="shared" si="9"/>
         <v>-2.2667359117774302E-3</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <f t="shared" si="9"/>
         <v>-1.5111572745182867E-3</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="11">
         <f t="shared" si="8"/>
         <v>-7.5557863725914337E-4</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="15">
         <f t="shared" si="3"/>
         <v>1.9981467697883446E-4</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>26</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <f t="shared" si="4"/>
         <v>9.0669436471097209E-3</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="11">
         <f t="shared" si="5"/>
         <v>6.044629098073147E-3</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="11">
         <f t="shared" si="6"/>
         <v>3.0223145490365735E-3</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <f t="shared" si="0"/>
         <v>1.8133887294219442E-2</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>1.2089258196146294E-2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <f t="shared" si="2"/>
         <v>6.044629098073147E-3</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="11">
         <f t="shared" si="9"/>
         <v>-1.8133887294219443E-3</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <f t="shared" si="9"/>
         <v>-1.2089258196146294E-3</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="11">
         <f t="shared" si="8"/>
         <v>-6.0446290980731472E-4</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="15">
         <f t="shared" si="3"/>
         <v>1.2788139326645406E-4</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>27</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <f t="shared" si="4"/>
         <v>7.2535549176877771E-3</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="11">
         <f t="shared" si="5"/>
         <v>4.8357032784585178E-3</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <f t="shared" si="6"/>
         <v>2.4178516392292589E-3</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <f t="shared" si="0"/>
         <v>1.4507109835375554E-2</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>9.6714065569170355E-3</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <f t="shared" si="2"/>
         <v>4.8357032784585178E-3</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="11">
         <f t="shared" si="9"/>
         <v>-1.4507109835375555E-3</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <f t="shared" si="9"/>
         <v>-9.6714065569170364E-4</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="11">
         <f t="shared" si="8"/>
         <v>-4.8357032784585182E-4</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="15">
         <f t="shared" si="3"/>
         <v>8.18440916905306E-5</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>28</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <f t="shared" si="4"/>
         <v>5.8028439341502218E-3</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <f t="shared" si="5"/>
         <v>3.8685626227668141E-3</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <f t="shared" si="6"/>
         <v>1.9342813113834071E-3</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <f t="shared" si="0"/>
         <v>1.1605687868300444E-2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>7.7371252455336282E-3</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f t="shared" si="2"/>
         <v>3.8685626227668141E-3</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <f t="shared" si="9"/>
         <v>-1.1605687868300443E-3</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <f t="shared" si="9"/>
         <v>-7.7371252455336284E-4</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="11">
         <f t="shared" si="8"/>
         <v>-3.8685626227668142E-4</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="15">
         <f t="shared" si="3"/>
         <v>5.2380218681939585E-5</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>29</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <f t="shared" si="4"/>
         <v>4.6422751473201773E-3</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <f t="shared" si="5"/>
         <v>3.0948500982134514E-3</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <f t="shared" si="6"/>
         <v>1.5474250491067257E-3</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <f t="shared" si="0"/>
         <v>9.2845502946403546E-3</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>6.1897001964269028E-3</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <f t="shared" si="2"/>
         <v>3.0948500982134514E-3</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <f t="shared" si="9"/>
         <v>-9.284550294640355E-4</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <f t="shared" si="9"/>
         <v>-6.189700196426903E-4</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <f t="shared" si="8"/>
         <v>-3.0948500982134515E-4</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="15">
         <f t="shared" ref="L36:L37" si="10">C36^2+D36^2+E36^2</f>
         <v>3.3523339956441338E-5</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>30</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <f t="shared" si="4"/>
         <v>3.713820117856142E-3</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <f t="shared" si="5"/>
         <v>2.4758800785707612E-3</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <f t="shared" si="6"/>
         <v>1.2379400392853806E-3</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <f t="shared" si="0"/>
         <v>7.427640235712284E-3</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="12">
         <f t="shared" si="1"/>
         <v>4.9517601571415224E-3</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <f t="shared" si="2"/>
         <v>2.4758800785707612E-3</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="12">
         <f t="shared" si="9"/>
         <v>-7.4276402357122844E-4</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="12">
         <f t="shared" si="9"/>
         <v>-4.9517601571415226E-4</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="11">
         <f t="shared" si="8"/>
         <v>-2.4758800785707613E-4</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="15">
         <f t="shared" si="10"/>
         <v>2.1454937572122456E-5</v>
       </c>
@@ -4226,16 +4227,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7F7331-D0BF-3B45-8F38-DCD43E850045}">
   <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="3.6328125" customWidth="1"/>
+    <col min="3" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" customHeight="1">
@@ -4257,26 +4258,26 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="16" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16">
+    <row r="6" spans="2:12" ht="17">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4289,1416 +4290,1416 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" ref="F7:H37" si="0">2*C7</f>
         <v>6</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <f>-$C$3*F7</f>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <f>-$C$3*G7</f>
         <v>-0.4</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <f>-$C$3*H7</f>
         <v>-0.2</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <f t="shared" ref="L7:L37" si="1">C7^2+D7^2+E7^2</f>
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <f t="shared" ref="C8:E23" si="2">C7+I7</f>
         <v>2.4</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <f t="shared" ref="I8:K27" si="3">-$C$3*F8</f>
         <v>-0.48</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <f t="shared" si="3"/>
         <v>-0.32000000000000006</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
         <v>-0.16000000000000003</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <f t="shared" si="2"/>
         <v>1.92</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <f t="shared" si="3"/>
         <v>-0.38400000000000001</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <f t="shared" si="3"/>
         <v>-0.25600000000000001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <f t="shared" si="3"/>
         <v>-0.128</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f t="shared" si="1"/>
         <v>5.7343999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <f t="shared" si="2"/>
         <v>1.536</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <f t="shared" si="2"/>
         <v>1.024</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f t="shared" si="2"/>
         <v>0.51200000000000001</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>3.0720000000000001</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>2.048</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>1.024</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <f t="shared" si="3"/>
         <v>-0.30720000000000003</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <f t="shared" si="3"/>
         <v>-0.20480000000000001</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <f t="shared" si="3"/>
         <v>-0.1024</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>3.6700160000000004</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <f t="shared" si="2"/>
         <v>1.2288000000000001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <f t="shared" si="2"/>
         <v>0.81920000000000004</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <f t="shared" si="2"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>2.4576000000000002</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>1.6384000000000001</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>0.81920000000000004</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <f t="shared" si="3"/>
         <v>-0.24576000000000003</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <f t="shared" si="3"/>
         <v>-0.16384000000000001</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <f t="shared" si="3"/>
         <v>-8.1920000000000007E-2</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>2.3488102400000006</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <f t="shared" si="2"/>
         <v>0.98304000000000014</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f t="shared" si="2"/>
         <v>0.65536000000000005</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f t="shared" si="2"/>
         <v>0.32768000000000003</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>1.9660800000000003</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>1.3107200000000001</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>0.65536000000000005</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <f t="shared" si="3"/>
         <v>-0.19660800000000003</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <f t="shared" si="3"/>
         <v>-0.13107200000000002</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <f t="shared" si="3"/>
         <v>-6.5536000000000011E-2</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
         <v>1.5032385536000004</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <f t="shared" si="2"/>
         <v>0.78643200000000013</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f t="shared" si="2"/>
         <v>0.52428800000000009</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <f t="shared" si="2"/>
         <v>0.26214400000000004</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>1.5728640000000003</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>1.0485760000000002</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>0.52428800000000009</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <f t="shared" si="3"/>
         <v>-0.15728640000000005</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <f t="shared" si="3"/>
         <v>-0.10485760000000002</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <f t="shared" si="3"/>
         <v>-5.2428800000000012E-2</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="15">
         <f t="shared" si="1"/>
         <v>0.96207267430400023</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <f t="shared" si="2"/>
         <v>0.62914560000000008</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <f t="shared" si="2"/>
         <v>0.41943040000000009</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <f t="shared" si="2"/>
         <v>0.20971520000000005</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>1.2582912000000002</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0.83886080000000018</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>0.41943040000000009</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <f t="shared" si="3"/>
         <v>-0.12582912000000002</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <f t="shared" si="3"/>
         <v>-8.388608000000003E-2</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>-4.1943040000000015E-2</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <f t="shared" si="1"/>
         <v>0.61572651155456026</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <f t="shared" si="2"/>
         <v>0.50331648000000007</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f t="shared" si="2"/>
         <v>0.33554432000000006</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <f t="shared" si="2"/>
         <v>0.16777216000000003</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>1.0066329600000001</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>0.67108864000000013</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>0.33554432000000006</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <f t="shared" si="3"/>
         <v>-0.10066329600000001</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <f t="shared" si="3"/>
         <v>-6.7108864000000018E-2</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="11">
         <f t="shared" si="3"/>
         <v>-3.3554432000000009E-2</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <f t="shared" si="1"/>
         <v>0.39406496739491853</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <f t="shared" si="2"/>
         <v>0.40265318400000005</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <f t="shared" si="2"/>
         <v>0.26843545600000007</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <f t="shared" si="2"/>
         <v>0.13421772800000004</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>0.80530636800000011</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0.53687091200000014</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
         <v>0.26843545600000007</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <f t="shared" si="3"/>
         <v>-8.0530636800000013E-2</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <f t="shared" si="3"/>
         <v>-5.3687091200000016E-2</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <f t="shared" si="3"/>
         <v>-2.6843545600000008E-2</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <f t="shared" si="1"/>
         <v>0.25220157913274788</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <f t="shared" si="2"/>
         <v>0.32212254720000005</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <f t="shared" si="2"/>
         <v>0.21474836480000006</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <f t="shared" si="2"/>
         <v>0.10737418240000003</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>0.64424509440000011</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0.42949672960000013</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>0.21474836480000006</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <f t="shared" si="3"/>
         <v>-6.4424509440000013E-2</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <f t="shared" si="3"/>
         <v>-4.2949672960000018E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <f t="shared" si="3"/>
         <v>-2.1474836480000009E-2</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="15">
         <f t="shared" si="1"/>
         <v>0.16140901064495863</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <f t="shared" si="2"/>
         <v>0.25769803776000005</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <f t="shared" si="2"/>
         <v>0.17179869184000005</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <f t="shared" si="2"/>
         <v>8.5899345920000023E-2</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>0.51539607552000011</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0.34359738368000009</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
         <v>0.17179869184000005</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <f t="shared" si="3"/>
         <v>-5.1539607552000016E-2</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <f t="shared" si="3"/>
         <v>-3.4359738368000013E-2</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <f t="shared" si="3"/>
         <v>-1.7179869184000007E-2</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f t="shared" si="1"/>
         <v>0.10330176681277355</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <f t="shared" si="2"/>
         <v>0.20615843020800004</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <f t="shared" si="2"/>
         <v>0.13743895347200002</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <f t="shared" si="2"/>
         <v>6.8719476736000012E-2</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>0.41231686041600007</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>0.27487790694400005</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
         <v>0.13743895347200002</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <f t="shared" si="3"/>
         <v>-4.1231686041600012E-2</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <f t="shared" si="3"/>
         <v>-2.7487790694400008E-2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <f t="shared" si="3"/>
         <v>-1.3743895347200004E-2</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="15">
         <f t="shared" si="1"/>
         <v>6.6113130760175068E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <f t="shared" si="2"/>
         <v>0.16492674416640002</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <f t="shared" si="2"/>
         <v>0.10995116277760002</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <f t="shared" si="2"/>
         <v>5.4975581388800009E-2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>0.32985348833280004</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0.21990232555520003</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
         <v>0.10995116277760002</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <f t="shared" si="3"/>
         <v>-3.2985348833280005E-2</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <f t="shared" si="3"/>
         <v>-2.1990232555520003E-2</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <f t="shared" si="3"/>
         <v>-1.0995116277760002E-2</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15">
         <f t="shared" si="1"/>
         <v>4.2312403686512033E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <f t="shared" si="2"/>
         <v>0.13194139533312002</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <f t="shared" si="2"/>
         <v>8.7960930222080014E-2</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <f t="shared" si="2"/>
         <v>4.3980465111040007E-2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>0.26388279066624004</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>0.17592186044416003</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>8.7960930222080014E-2</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="11">
         <f t="shared" si="3"/>
         <v>-2.6388279066624006E-2</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <f t="shared" si="3"/>
         <v>-1.7592186044416005E-2</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <f t="shared" si="3"/>
         <v>-8.7960930222080024E-3</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <f t="shared" si="1"/>
         <v>2.7079938359367704E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <f t="shared" si="2"/>
         <v>0.10555311626649602</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <f t="shared" si="2"/>
         <v>7.0368744177664005E-2</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <f t="shared" si="2"/>
         <v>3.5184372088832003E-2</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>0.21110623253299204</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0.14073748835532801</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <f t="shared" si="0"/>
         <v>7.0368744177664005E-2</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <f t="shared" si="3"/>
         <v>-2.1110623253299206E-2</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <f t="shared" si="3"/>
         <v>-1.4073748835532801E-2</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="11">
         <f t="shared" si="3"/>
         <v>-7.0368744177664007E-3</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="15">
         <f t="shared" si="1"/>
         <v>1.7331160549995329E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>16</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <f t="shared" si="2"/>
         <v>8.4442493013196812E-2</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <f t="shared" si="2"/>
         <v>5.6294995342131206E-2</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <f t="shared" si="2"/>
         <v>2.8147497671065603E-2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>0.16888498602639362</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <f t="shared" si="0"/>
         <v>0.11258999068426241</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
         <v>5.6294995342131206E-2</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="11">
         <f t="shared" si="3"/>
         <v>-1.6888498602639364E-2</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="11">
         <f t="shared" si="3"/>
         <v>-1.1258999068426243E-2</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="11">
         <f t="shared" si="3"/>
         <v>-5.6294995342131213E-3</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="15">
         <f t="shared" si="1"/>
         <v>1.1091942751997009E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <f t="shared" ref="C24:E37" si="4">C23+I23</f>
         <v>6.7553994410557455E-2</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <f t="shared" si="4"/>
         <v>4.5035996273704963E-2</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <f t="shared" si="4"/>
         <v>2.2517998136852482E-2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>0.13510798882111491</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>9.0071992547409926E-2</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>4.5035996273704963E-2</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <f t="shared" si="3"/>
         <v>-1.3510798882111492E-2</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <f t="shared" si="3"/>
         <v>-9.0071992547409926E-3</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <f t="shared" si="3"/>
         <v>-4.5035996273704963E-3</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <f t="shared" si="1"/>
         <v>7.098843361278087E-3</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>18</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <f t="shared" si="4"/>
         <v>5.4043195528445963E-2</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <f t="shared" si="4"/>
         <v>3.6028797018963971E-2</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <f t="shared" si="4"/>
         <v>1.8014398509481985E-2</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>0.10808639105689193</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="11">
         <f t="shared" si="0"/>
         <v>7.2057594037927941E-2</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>3.6028797018963971E-2</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="11">
         <f t="shared" si="3"/>
         <v>-1.0808639105689194E-2</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <f t="shared" si="3"/>
         <v>-7.2057594037927943E-3</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="11">
         <f t="shared" si="3"/>
         <v>-3.6028797018963971E-3</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="15">
         <f t="shared" si="1"/>
         <v>4.543259751217975E-3</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <f t="shared" si="4"/>
         <v>4.3234556422756767E-2</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <f t="shared" si="4"/>
         <v>2.8823037615171177E-2</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <f t="shared" si="4"/>
         <v>1.4411518807585589E-2</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>8.6469112845513535E-2</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="11">
         <f t="shared" si="0"/>
         <v>5.7646075230342354E-2</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>2.8823037615171177E-2</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="11">
         <f t="shared" si="3"/>
         <v>-8.6469112845513531E-3</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <f t="shared" si="3"/>
         <v>-5.7646075230342354E-3</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="11">
         <f t="shared" si="3"/>
         <v>-2.8823037615171177E-3</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="15">
         <f t="shared" si="1"/>
         <v>2.907686240779504E-3</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>20</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="11">
         <f t="shared" si="4"/>
         <v>3.4587645138205413E-2</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <f t="shared" si="4"/>
         <v>2.3058430092136942E-2</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <f t="shared" si="4"/>
         <v>1.1529215046068471E-2</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>6.9175290276410825E-2</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
         <f t="shared" si="0"/>
         <v>4.6116860184273883E-2</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
         <v>2.3058430092136942E-2</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="11">
         <f t="shared" si="3"/>
         <v>-6.9175290276410825E-3</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="11">
         <f t="shared" si="3"/>
         <v>-4.6116860184273883E-3</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="11">
         <f t="shared" si="3"/>
         <v>-2.3058430092136942E-3</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="15">
         <f t="shared" si="1"/>
         <v>1.8609191940988827E-3</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>21</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <f t="shared" si="4"/>
         <v>2.767011611056433E-2</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <f t="shared" si="4"/>
         <v>1.8446744073709553E-2</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <f t="shared" si="4"/>
         <v>9.2233720368547767E-3</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>5.534023222112866E-2</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <f t="shared" si="0"/>
         <v>3.6893488147419107E-2</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
         <v>1.8446744073709553E-2</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="11">
         <f t="shared" ref="I28:K37" si="5">-$C$3*F28</f>
         <v>-5.5340232221128662E-3</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <f t="shared" si="5"/>
         <v>-3.6893488147419109E-3</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <f t="shared" si="5"/>
         <v>-1.8446744073709555E-3</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="15">
         <f t="shared" si="1"/>
         <v>1.1909882842232849E-3</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>22</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <f t="shared" si="4"/>
         <v>2.2136092888451465E-2</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <f t="shared" si="4"/>
         <v>1.4757395258967642E-2</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <f t="shared" si="4"/>
         <v>7.378697629483821E-3</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>4.4272185776902929E-2</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="11">
         <f t="shared" si="0"/>
         <v>2.9514790517935284E-2</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <f t="shared" si="0"/>
         <v>1.4757395258967642E-2</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="11">
         <f t="shared" si="5"/>
         <v>-4.4272185776902933E-3</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <f t="shared" si="5"/>
         <v>-2.9514790517935286E-3</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="11">
         <f t="shared" si="5"/>
         <v>-1.4757395258967643E-3</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="15">
         <f t="shared" si="1"/>
         <v>7.6223250190290233E-4</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>23</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="11">
         <f t="shared" si="4"/>
         <v>1.7708874310761173E-2</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="11">
         <f t="shared" si="4"/>
         <v>1.1805916207174114E-2</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <f t="shared" si="4"/>
         <v>5.9029581035870572E-3</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>3.5417748621522346E-2</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <f t="shared" si="0"/>
         <v>2.3611832414348229E-2</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>1.1805916207174114E-2</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="11">
         <f t="shared" si="5"/>
         <v>-3.5417748621522347E-3</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <f t="shared" si="5"/>
         <v>-2.3611832414348229E-3</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="11">
         <f t="shared" si="5"/>
         <v>-1.1805916207174114E-3</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="15">
         <f t="shared" si="1"/>
         <v>4.8782880121785751E-4</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>24</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <f t="shared" si="4"/>
         <v>1.4167099448608939E-2</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <f t="shared" si="4"/>
         <v>9.4447329657392914E-3</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <f t="shared" si="4"/>
         <v>4.7223664828696457E-3</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>2.8334198897217878E-2</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <f t="shared" si="0"/>
         <v>1.8889465931478583E-2</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
         <v>9.4447329657392914E-3</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="11">
         <f t="shared" si="5"/>
         <v>-2.8334198897217878E-3</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="11">
         <f t="shared" si="5"/>
         <v>-1.8889465931478584E-3</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <f t="shared" si="5"/>
         <v>-9.4447329657392919E-4</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="15">
         <f t="shared" si="1"/>
         <v>3.1221043277942888E-4</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>25</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <f t="shared" si="4"/>
         <v>1.1333679558887151E-2</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="11">
         <f t="shared" si="4"/>
         <v>7.5557863725914335E-3</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <f t="shared" si="4"/>
         <v>3.7778931862957168E-3</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="11">
         <f t="shared" si="0"/>
         <v>2.2667359117774302E-2</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <f t="shared" si="0"/>
         <v>1.5111572745182867E-2</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
         <v>7.5557863725914335E-3</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="11">
         <f t="shared" si="5"/>
         <v>-2.2667359117774302E-3</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <f t="shared" si="5"/>
         <v>-1.5111572745182867E-3</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="11">
         <f t="shared" si="5"/>
         <v>-7.5557863725914337E-4</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="15">
         <f t="shared" si="1"/>
         <v>1.9981467697883446E-4</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>26</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="11">
         <f t="shared" si="4"/>
         <v>9.0669436471097209E-3</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="11">
         <f t="shared" si="4"/>
         <v>6.044629098073147E-3</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="11">
         <f t="shared" si="4"/>
         <v>3.0223145490365735E-3</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <f t="shared" si="0"/>
         <v>1.8133887294219442E-2</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <f t="shared" si="0"/>
         <v>1.2089258196146294E-2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <f t="shared" si="0"/>
         <v>6.044629098073147E-3</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="11">
         <f t="shared" si="5"/>
         <v>-1.8133887294219443E-3</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <f t="shared" si="5"/>
         <v>-1.2089258196146294E-3</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="11">
         <f t="shared" si="5"/>
         <v>-6.0446290980731472E-4</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="15">
         <f t="shared" si="1"/>
         <v>1.2788139326645406E-4</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>27</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="11">
         <f t="shared" si="4"/>
         <v>7.2535549176877771E-3</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="11">
         <f t="shared" si="4"/>
         <v>4.8357032784585178E-3</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <f t="shared" si="4"/>
         <v>2.4178516392292589E-3</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <f t="shared" si="0"/>
         <v>1.4507109835375554E-2</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <f t="shared" si="0"/>
         <v>9.6714065569170355E-3</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <f t="shared" si="0"/>
         <v>4.8357032784585178E-3</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="11">
         <f t="shared" si="5"/>
         <v>-1.4507109835375555E-3</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <f t="shared" si="5"/>
         <v>-9.6714065569170364E-4</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="11">
         <f t="shared" si="5"/>
         <v>-4.8357032784585182E-4</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="15">
         <f t="shared" si="1"/>
         <v>8.18440916905306E-5</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>28</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <f t="shared" si="4"/>
         <v>5.8028439341502218E-3</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <f t="shared" si="4"/>
         <v>3.8685626227668141E-3</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <f t="shared" si="4"/>
         <v>1.9342813113834071E-3</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <f t="shared" si="0"/>
         <v>1.1605687868300444E-2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <f t="shared" si="0"/>
         <v>7.7371252455336282E-3</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f t="shared" si="0"/>
         <v>3.8685626227668141E-3</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <f t="shared" si="5"/>
         <v>-1.1605687868300443E-3</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <f t="shared" si="5"/>
         <v>-7.7371252455336284E-4</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="11">
         <f t="shared" si="5"/>
         <v>-3.8685626227668142E-4</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="15">
         <f t="shared" si="1"/>
         <v>5.2380218681939585E-5</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>29</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <f t="shared" si="4"/>
         <v>4.6422751473201773E-3</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <f t="shared" si="4"/>
         <v>3.0948500982134514E-3</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <f t="shared" si="4"/>
         <v>1.5474250491067257E-3</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <f t="shared" si="0"/>
         <v>9.2845502946403546E-3</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <f t="shared" si="0"/>
         <v>6.1897001964269028E-3</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <f t="shared" si="0"/>
         <v>3.0948500982134514E-3</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <f t="shared" si="5"/>
         <v>-9.284550294640355E-4</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <f t="shared" si="5"/>
         <v>-6.189700196426903E-4</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <f t="shared" si="5"/>
         <v>-3.0948500982134515E-4</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="15">
         <f t="shared" si="1"/>
         <v>3.3523339956441338E-5</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>30</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <f t="shared" si="4"/>
         <v>3.713820117856142E-3</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <f t="shared" si="4"/>
         <v>2.4758800785707612E-3</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <f t="shared" si="4"/>
         <v>1.2379400392853806E-3</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <f t="shared" si="0"/>
         <v>7.427640235712284E-3</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="12">
         <f t="shared" si="0"/>
         <v>4.9517601571415224E-3</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <f t="shared" si="0"/>
         <v>2.4758800785707612E-3</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="12">
         <f t="shared" si="5"/>
         <v>-7.4276402357122844E-4</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="12">
         <f t="shared" si="5"/>
         <v>-4.9517601571415226E-4</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="11">
         <f t="shared" si="5"/>
         <v>-2.4758800785707613E-4</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="15">
         <f t="shared" si="1"/>
         <v>2.1454937572122456E-5</v>
       </c>
